--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Col18a1-Itgb1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Col18a1-Itgb1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,19 +82,19 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
+    <t>Col18a1</t>
+  </si>
+  <si>
+    <t>Itgb1</t>
+  </si>
+  <si>
     <t>Inflammatory-Mac</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Col18a1</t>
-  </si>
-  <si>
-    <t>Itgb1</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T26"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,10 +525,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>21.16991533333334</v>
+        <v>32.50178966666667</v>
       </c>
       <c r="H2">
-        <v>63.50974600000001</v>
+        <v>97.505369</v>
       </c>
       <c r="I2">
-        <v>0.3077700633440185</v>
+        <v>0.4689023259544835</v>
       </c>
       <c r="J2">
-        <v>0.3697009773073652</v>
+        <v>0.5294103824060522</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>138.2190853333333</v>
+        <v>121.928739</v>
       </c>
       <c r="N2">
-        <v>414.657256</v>
+        <v>365.786217</v>
       </c>
       <c r="O2">
-        <v>0.2249223651785973</v>
+        <v>0.2282232151508951</v>
       </c>
       <c r="P2">
-        <v>0.2476599003709697</v>
+        <v>0.2419720431319445</v>
       </c>
       <c r="Q2">
-        <v>2926.086333957442</v>
+        <v>3962.902229299897</v>
       </c>
       <c r="R2">
-        <v>26334.77700561698</v>
+        <v>35666.12006369907</v>
       </c>
       <c r="S2">
-        <v>0.06922437057850336</v>
+        <v>0.1070143964210652</v>
       </c>
       <c r="T2">
-        <v>0.0915601072069922</v>
+        <v>0.1281025118860565</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,10 +587,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>21.16991533333334</v>
+        <v>32.50178966666667</v>
       </c>
       <c r="H3">
-        <v>63.50974600000001</v>
+        <v>97.505369</v>
       </c>
       <c r="I3">
-        <v>0.3077700633440185</v>
+        <v>0.4689023259544835</v>
       </c>
       <c r="J3">
-        <v>0.3697009773073652</v>
+        <v>0.5294103824060522</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>443.74299</v>
       </c>
       <c r="O3">
-        <v>0.2406993279341594</v>
+        <v>0.2768624053389947</v>
       </c>
       <c r="P3">
-        <v>0.2650317656414439</v>
+        <v>0.2935413991166814</v>
       </c>
       <c r="Q3">
-        <v>3131.333842686727</v>
+        <v>4807.480442345923</v>
       </c>
       <c r="R3">
-        <v>28182.00458418054</v>
+        <v>43267.32398111331</v>
       </c>
       <c r="S3">
-        <v>0.07408004740515892</v>
+        <v>0.1298214258328076</v>
       </c>
       <c r="T3">
-        <v>0.09798250277513838</v>
+        <v>0.1554038643583699</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,14 +649,14 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" t="s">
         <v>26</v>
       </c>
-      <c r="D4" t="s">
-        <v>22</v>
-      </c>
       <c r="E4">
         <v>3</v>
       </c>
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>21.16991533333334</v>
+        <v>32.50178966666667</v>
       </c>
       <c r="H4">
-        <v>63.50974600000001</v>
+        <v>97.505369</v>
       </c>
       <c r="I4">
-        <v>0.3077700633440185</v>
+        <v>0.4689023259544835</v>
       </c>
       <c r="J4">
-        <v>0.3697009773073652</v>
+        <v>0.5294103824060522</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>74.27261733333333</v>
+        <v>83.50496933333334</v>
       </c>
       <c r="N4">
-        <v>222.817852</v>
+        <v>250.514908</v>
       </c>
       <c r="O4">
-        <v>0.1208629960061633</v>
+        <v>0.1563025480180701</v>
       </c>
       <c r="P4">
-        <v>0.1330811078998542</v>
+        <v>0.1657186665504434</v>
       </c>
       <c r="Q4">
-        <v>1572.345020531732</v>
+        <v>2714.06094939345</v>
       </c>
       <c r="R4">
-        <v>14151.10518478559</v>
+        <v>24426.54854454105</v>
       </c>
       <c r="S4">
-        <v>0.03719801193676475</v>
+        <v>0.07329062831828539</v>
       </c>
       <c r="T4">
-        <v>0.04920021565172302</v>
+        <v>0.08773318263029128</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,13 +711,13 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>21.16991533333334</v>
+        <v>32.50178966666667</v>
       </c>
       <c r="H5">
-        <v>63.50974600000001</v>
+        <v>97.505369</v>
       </c>
       <c r="I5">
-        <v>0.3077700633440185</v>
+        <v>0.4689023259544835</v>
       </c>
       <c r="J5">
-        <v>0.3697009773073652</v>
+        <v>0.5294103824060522</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>169.2560955</v>
+        <v>91.06846250000001</v>
       </c>
       <c r="N5">
-        <v>338.512191</v>
+        <v>182.136925</v>
       </c>
       <c r="O5">
-        <v>0.275428543235871</v>
+        <v>0.1704597085236707</v>
       </c>
       <c r="P5">
-        <v>0.2021811852664618</v>
+        <v>0.1204857969594293</v>
       </c>
       <c r="Q5">
-        <v>3583.137211385582</v>
+        <v>2959.888013441721</v>
       </c>
       <c r="R5">
-        <v>21498.82326831349</v>
+        <v>17759.32808065033</v>
       </c>
       <c r="S5">
-        <v>0.08476866019845476</v>
+        <v>0.0799289538082725</v>
       </c>
       <c r="T5">
-        <v>0.07474658178617238</v>
+        <v>0.06378643184278944</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,13 +773,13 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>21.16991533333334</v>
+        <v>32.50178966666667</v>
       </c>
       <c r="H6">
-        <v>63.50974600000001</v>
+        <v>97.505369</v>
       </c>
       <c r="I6">
-        <v>0.3077700633440185</v>
+        <v>0.4689023259544835</v>
       </c>
       <c r="J6">
-        <v>0.3697009773073652</v>
+        <v>0.5294103824060522</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>84.85695366666668</v>
+        <v>89.83562999999999</v>
       </c>
       <c r="N6">
-        <v>254.570861</v>
+        <v>269.50689</v>
       </c>
       <c r="O6">
-        <v>0.138086767645209</v>
+        <v>0.1681521229683693</v>
       </c>
       <c r="P6">
-        <v>0.1520460408212704</v>
+        <v>0.1782820942415013</v>
       </c>
       <c r="Q6">
-        <v>1796.414524567924</v>
+        <v>2919.81875083249</v>
       </c>
       <c r="R6">
-        <v>16167.73072111131</v>
+        <v>26278.36875749241</v>
       </c>
       <c r="S6">
-        <v>0.04249897322513674</v>
+        <v>0.07884692157405269</v>
       </c>
       <c r="T6">
-        <v>0.05621156988733922</v>
+        <v>0.09438439168854504</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,10 +835,10 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
@@ -856,10 +856,10 @@
         <v>38.891062</v>
       </c>
       <c r="I7">
-        <v>0.1884672096666258</v>
+        <v>0.1870267208633406</v>
       </c>
       <c r="J7">
-        <v>0.2263914522650009</v>
+        <v>0.2111610080220042</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>138.2190853333333</v>
+        <v>121.928739</v>
       </c>
       <c r="N7">
-        <v>414.657256</v>
+        <v>365.786217</v>
       </c>
       <c r="O7">
-        <v>0.2249223651785973</v>
+        <v>0.2282232151508951</v>
       </c>
       <c r="P7">
-        <v>0.2476599003709697</v>
+        <v>0.2419720431319445</v>
       </c>
       <c r="Q7">
-        <v>1791.829005760653</v>
+        <v>1580.646049343606</v>
       </c>
       <c r="R7">
-        <v>16126.46105184587</v>
+        <v>14225.81444409245</v>
       </c>
       <c r="S7">
-        <v>0.04239049055682808</v>
+        <v>0.04268383955456058</v>
       </c>
       <c r="T7">
-        <v>0.05606808451278927</v>
+        <v>0.0510950605408853</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,10 +897,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
         <v>21</v>
@@ -918,10 +918,10 @@
         <v>38.891062</v>
       </c>
       <c r="I8">
-        <v>0.1884672096666258</v>
+        <v>0.1870267208633406</v>
       </c>
       <c r="J8">
-        <v>0.2263914522650009</v>
+        <v>0.2111610080220042</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,22 +936,22 @@
         <v>443.74299</v>
       </c>
       <c r="O8">
-        <v>0.2406993279341594</v>
+        <v>0.2768624053389947</v>
       </c>
       <c r="P8">
-        <v>0.2650317656414439</v>
+        <v>0.2935413991166814</v>
       </c>
       <c r="Q8">
-        <v>1917.515126239487</v>
+        <v>1917.515126239486</v>
       </c>
       <c r="R8">
         <v>17257.63613615538</v>
       </c>
       <c r="S8">
-        <v>0.04536393070438313</v>
+        <v>0.05178066780088923</v>
       </c>
       <c r="T8">
-        <v>0.06000092631992385</v>
+        <v>0.06198449773366792</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,13 +959,13 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
         <v>26</v>
-      </c>
-      <c r="D9" t="s">
-        <v>22</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -980,10 +980,10 @@
         <v>38.891062</v>
       </c>
       <c r="I9">
-        <v>0.1884672096666258</v>
+        <v>0.1870267208633406</v>
       </c>
       <c r="J9">
-        <v>0.2263914522650009</v>
+        <v>0.2111610080220042</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>74.27261733333333</v>
+        <v>83.50496933333334</v>
       </c>
       <c r="N9">
-        <v>222.817852</v>
+        <v>250.514908</v>
       </c>
       <c r="O9">
-        <v>0.1208629960061633</v>
+        <v>0.1563025480180701</v>
       </c>
       <c r="P9">
-        <v>0.1330811078998542</v>
+        <v>0.1657186665504434</v>
       </c>
       <c r="Q9">
-        <v>962.846988537647</v>
+        <v>1082.532313216922</v>
       </c>
       <c r="R9">
-        <v>8665.622896838822</v>
+        <v>9742.790818952295</v>
       </c>
       <c r="S9">
-        <v>0.02277871160923015</v>
+        <v>0.02923275301840448</v>
       </c>
       <c r="T9">
-        <v>0.03012842528648327</v>
+        <v>0.03499332067685402</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,13 +1021,13 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1042,10 +1042,10 @@
         <v>38.891062</v>
       </c>
       <c r="I10">
-        <v>0.1884672096666258</v>
+        <v>0.1870267208633406</v>
       </c>
       <c r="J10">
-        <v>0.2263914522650009</v>
+        <v>0.2111610080220042</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>169.2560955</v>
+        <v>91.06846250000001</v>
       </c>
       <c r="N10">
-        <v>338.512191</v>
+        <v>182.136925</v>
       </c>
       <c r="O10">
-        <v>0.275428543235871</v>
+        <v>0.1704597085236707</v>
       </c>
       <c r="P10">
-        <v>0.2021811852664618</v>
+        <v>0.1204857969594293</v>
       </c>
       <c r="Q10">
-        <v>2194.183101322807</v>
+        <v>1180.583073777392</v>
       </c>
       <c r="R10">
-        <v>13165.09860793684</v>
+        <v>7083.49844266435</v>
       </c>
       <c r="S10">
-        <v>0.05190924900620821</v>
+        <v>0.03188052032450297</v>
       </c>
       <c r="T10">
-        <v>0.04577209215313348</v>
+        <v>0.02544190233828763</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,13 +1083,13 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1104,10 +1104,10 @@
         <v>38.891062</v>
       </c>
       <c r="I11">
-        <v>0.1884672096666258</v>
+        <v>0.1870267208633406</v>
       </c>
       <c r="J11">
-        <v>0.2263914522650009</v>
+        <v>0.2111610080220042</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>84.85695366666668</v>
+        <v>89.83562999999999</v>
       </c>
       <c r="N11">
-        <v>254.570861</v>
+        <v>269.50689</v>
       </c>
       <c r="O11">
-        <v>0.138086767645209</v>
+        <v>0.1681521229683693</v>
       </c>
       <c r="P11">
-        <v>0.1520460408212704</v>
+        <v>0.1782820942415013</v>
       </c>
       <c r="Q11">
-        <v>1100.05901539382</v>
+        <v>1164.60101871302</v>
       </c>
       <c r="R11">
-        <v>9900.531138544384</v>
+        <v>10481.40916841718</v>
       </c>
       <c r="S11">
-        <v>0.02602482778997625</v>
+        <v>0.03144894016498333</v>
       </c>
       <c r="T11">
-        <v>0.03442192399267101</v>
+        <v>0.03764622673230937</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,10 +1145,10 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
         <v>20</v>
@@ -1157,19 +1157,19 @@
         <v>2</v>
       </c>
       <c r="F12">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G12">
-        <v>0.05547</v>
+        <v>23.766591</v>
       </c>
       <c r="H12">
-        <v>0.16641</v>
+        <v>47.533182</v>
       </c>
       <c r="I12">
-        <v>0.0008064276660951866</v>
+        <v>0.3428798818219608</v>
       </c>
       <c r="J12">
-        <v>0.0009687007665519343</v>
+        <v>0.2580838400765036</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>138.2190853333333</v>
+        <v>121.928739</v>
       </c>
       <c r="N12">
-        <v>414.657256</v>
+        <v>365.786217</v>
       </c>
       <c r="O12">
-        <v>0.2249223651785973</v>
+        <v>0.2282232151508951</v>
       </c>
       <c r="P12">
-        <v>0.2476599003709697</v>
+        <v>0.2419720431319445</v>
       </c>
       <c r="Q12">
-        <v>7.66701266344</v>
+        <v>2897.830470958749</v>
       </c>
       <c r="R12">
-        <v>69.00311397096</v>
+        <v>17386.98282575249</v>
       </c>
       <c r="S12">
-        <v>0.0001813836180035855</v>
+        <v>0.07825314903996683</v>
       </c>
       <c r="T12">
-        <v>0.000239908335333534</v>
+        <v>0.0624490740826496</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,10 +1207,10 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D13" t="s">
         <v>21</v>
@@ -1219,19 +1219,19 @@
         <v>2</v>
       </c>
       <c r="F13">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G13">
-        <v>0.05547</v>
+        <v>23.766591</v>
       </c>
       <c r="H13">
-        <v>0.16641</v>
+        <v>47.533182</v>
       </c>
       <c r="I13">
-        <v>0.0008064276660951866</v>
+        <v>0.3428798818219608</v>
       </c>
       <c r="J13">
-        <v>0.0009687007665519343</v>
+        <v>0.2580838400765036</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>443.74299</v>
       </c>
       <c r="O13">
-        <v>0.2406993279341594</v>
+        <v>0.2768624053389947</v>
       </c>
       <c r="P13">
-        <v>0.2650317656414439</v>
+        <v>0.2935413991166814</v>
       </c>
       <c r="Q13">
-        <v>8.204807885100001</v>
+        <v>3515.419384149029</v>
       </c>
       <c r="R13">
-        <v>73.8432709659</v>
+        <v>21092.51630489418</v>
       </c>
       <c r="S13">
-        <v>0.0001941065972566241</v>
+        <v>0.09493054882357831</v>
       </c>
       <c r="T13">
-        <v>0.0002567364745374793</v>
+        <v>0.07575829150546272</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,31 +1269,31 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
         <v>26</v>
-      </c>
-      <c r="D14" t="s">
-        <v>22</v>
       </c>
       <c r="E14">
         <v>2</v>
       </c>
       <c r="F14">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>0.05547</v>
+        <v>23.766591</v>
       </c>
       <c r="H14">
-        <v>0.16641</v>
+        <v>47.533182</v>
       </c>
       <c r="I14">
-        <v>0.0008064276660951866</v>
+        <v>0.3428798818219608</v>
       </c>
       <c r="J14">
-        <v>0.0009687007665519343</v>
+        <v>0.2580838400765036</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>74.27261733333333</v>
+        <v>83.50496933333334</v>
       </c>
       <c r="N14">
-        <v>222.817852</v>
+        <v>250.514908</v>
       </c>
       <c r="O14">
-        <v>0.1208629960061633</v>
+        <v>0.1563025480180701</v>
       </c>
       <c r="P14">
-        <v>0.1330811078998542</v>
+        <v>0.1657186665504434</v>
       </c>
       <c r="Q14">
-        <v>4.11990208348</v>
+        <v>1984.628452612876</v>
       </c>
       <c r="R14">
-        <v>37.07911875132</v>
+        <v>11907.77071567725</v>
       </c>
       <c r="S14">
-        <v>9.746726378652216E-05</v>
+        <v>0.05359299919290721</v>
       </c>
       <c r="T14">
-        <v>0.0001289157712361694</v>
+        <v>0.04276930983569605</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,31 +1331,31 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E15">
         <v>2</v>
       </c>
       <c r="F15">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>0.05547</v>
+        <v>23.766591</v>
       </c>
       <c r="H15">
-        <v>0.16641</v>
+        <v>47.533182</v>
       </c>
       <c r="I15">
-        <v>0.0008064276660951866</v>
+        <v>0.3428798818219608</v>
       </c>
       <c r="J15">
-        <v>0.0009687007665519343</v>
+        <v>0.2580838400765036</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>169.2560955</v>
+        <v>91.06846250000001</v>
       </c>
       <c r="N15">
-        <v>338.512191</v>
+        <v>182.136925</v>
       </c>
       <c r="O15">
-        <v>0.275428543235871</v>
+        <v>0.1704597085236707</v>
       </c>
       <c r="P15">
-        <v>0.2021811852664618</v>
+        <v>0.1204857969594293</v>
       </c>
       <c r="Q15">
-        <v>9.388635617385001</v>
+        <v>2164.386901236338</v>
       </c>
       <c r="R15">
-        <v>56.33181370431001</v>
+        <v>8657.54760494535</v>
       </c>
       <c r="S15">
-        <v>0.0002221131972977007</v>
+        <v>0.0584472047140021</v>
       </c>
       <c r="T15">
-        <v>0.0001958530691500001</v>
+        <v>0.03109543715396744</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,31 +1393,31 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E16">
         <v>2</v>
       </c>
       <c r="F16">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>0.05547</v>
+        <v>23.766591</v>
       </c>
       <c r="H16">
-        <v>0.16641</v>
+        <v>47.533182</v>
       </c>
       <c r="I16">
-        <v>0.0008064276660951866</v>
+        <v>0.3428798818219608</v>
       </c>
       <c r="J16">
-        <v>0.0009687007665519343</v>
+        <v>0.2580838400765036</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>84.85695366666668</v>
+        <v>89.83562999999999</v>
       </c>
       <c r="N16">
-        <v>254.570861</v>
+        <v>269.50689</v>
       </c>
       <c r="O16">
-        <v>0.138086767645209</v>
+        <v>0.1681521229683693</v>
       </c>
       <c r="P16">
-        <v>0.1520460408212704</v>
+        <v>0.1782820942415013</v>
       </c>
       <c r="Q16">
-        <v>4.707015219890001</v>
+        <v>2135.08667543733</v>
       </c>
       <c r="R16">
-        <v>42.36313697901001</v>
+        <v>12810.52005262398</v>
       </c>
       <c r="S16">
-        <v>0.0001113569897507542</v>
+        <v>0.05765598005150628</v>
       </c>
       <c r="T16">
-        <v>0.0001472871162947514</v>
+        <v>0.04601172749872776</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1455,31 +1455,31 @@
         <v>23</v>
       </c>
       <c r="B17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D17" t="s">
         <v>20</v>
       </c>
       <c r="E17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>34.5677325</v>
+        <v>0.08255866666666667</v>
       </c>
       <c r="H17">
-        <v>69.135465</v>
+        <v>0.247676</v>
       </c>
       <c r="I17">
-        <v>0.5025486901420179</v>
+        <v>0.001191071360215073</v>
       </c>
       <c r="J17">
-        <v>0.4024492394773416</v>
+        <v>0.001344769495439799</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>138.2190853333333</v>
+        <v>121.928739</v>
       </c>
       <c r="N17">
-        <v>414.657256</v>
+        <v>365.786217</v>
       </c>
       <c r="O17">
-        <v>0.2249223651785973</v>
+        <v>0.2282232151508951</v>
       </c>
       <c r="P17">
-        <v>0.2476599003709697</v>
+        <v>0.2419720431319445</v>
       </c>
       <c r="Q17">
-        <v>4777.92036819734</v>
+        <v>10.066274120188</v>
       </c>
       <c r="R17">
-        <v>28667.52220918404</v>
+        <v>90.596467081692</v>
       </c>
       <c r="S17">
-        <v>0.1130344400041487</v>
+        <v>0.0002718301353024339</v>
       </c>
       <c r="T17">
-        <v>0.09967053855333095</v>
+        <v>0.0003253966223530822</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1517,31 +1517,31 @@
         <v>23</v>
       </c>
       <c r="B18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D18" t="s">
         <v>21</v>
       </c>
       <c r="E18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>34.5677325</v>
+        <v>0.08255866666666667</v>
       </c>
       <c r="H18">
-        <v>69.135465</v>
+        <v>0.247676</v>
       </c>
       <c r="I18">
-        <v>0.5025486901420179</v>
+        <v>0.001191071360215073</v>
       </c>
       <c r="J18">
-        <v>0.4024492394773416</v>
+        <v>0.001344769495439799</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>443.74299</v>
       </c>
       <c r="O18">
-        <v>0.2406993279341594</v>
+        <v>0.2768624053389947</v>
       </c>
       <c r="P18">
-        <v>0.2650317656414439</v>
+        <v>0.2935413991166814</v>
       </c>
       <c r="Q18">
-        <v>5113.062992356725</v>
+        <v>12.21160986569333</v>
       </c>
       <c r="R18">
-        <v>30678.37795414035</v>
+        <v>109.90448879124</v>
       </c>
       <c r="S18">
-        <v>0.1209631319713758</v>
+        <v>0.0003297628817195334</v>
       </c>
       <c r="T18">
-        <v>0.1066618325197361</v>
+        <v>0.0003947455191808322</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1579,31 +1579,31 @@
         <v>23</v>
       </c>
       <c r="B19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" t="s">
         <v>26</v>
       </c>
-      <c r="D19" t="s">
-        <v>22</v>
-      </c>
       <c r="E19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>34.5677325</v>
+        <v>0.08255866666666667</v>
       </c>
       <c r="H19">
-        <v>69.135465</v>
+        <v>0.247676</v>
       </c>
       <c r="I19">
-        <v>0.5025486901420179</v>
+        <v>0.001191071360215073</v>
       </c>
       <c r="J19">
-        <v>0.4024492394773416</v>
+        <v>0.001344769495439799</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>74.27261733333333</v>
+        <v>83.50496933333334</v>
       </c>
       <c r="N19">
-        <v>222.817852</v>
+        <v>250.514908</v>
       </c>
       <c r="O19">
-        <v>0.1208629960061633</v>
+        <v>0.1563025480180701</v>
       </c>
       <c r="P19">
-        <v>0.1330811078998542</v>
+        <v>0.1657186665504434</v>
       </c>
       <c r="Q19">
-        <v>2567.43596805353</v>
+        <v>6.894058928200889</v>
       </c>
       <c r="R19">
-        <v>15404.61580832118</v>
+        <v>62.046530353808</v>
       </c>
       <c r="S19">
-        <v>0.06073954032953733</v>
+        <v>0.0001861674884729645</v>
       </c>
       <c r="T19">
-        <v>0.05355839066309836</v>
+        <v>0.000222853407601996</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1641,31 +1641,31 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C20" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>34.5677325</v>
+        <v>0.08255866666666667</v>
       </c>
       <c r="H20">
-        <v>69.135465</v>
+        <v>0.247676</v>
       </c>
       <c r="I20">
-        <v>0.5025486901420179</v>
+        <v>0.001191071360215073</v>
       </c>
       <c r="J20">
-        <v>0.4024492394773416</v>
+        <v>0.001344769495439799</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>169.2560955</v>
+        <v>91.06846250000001</v>
       </c>
       <c r="N20">
-        <v>338.512191</v>
+        <v>182.136925</v>
       </c>
       <c r="O20">
-        <v>0.275428543235871</v>
+        <v>0.1704597085236707</v>
       </c>
       <c r="P20">
-        <v>0.2021811852664618</v>
+        <v>0.1204857969594293</v>
       </c>
       <c r="Q20">
-        <v>5850.799433238454</v>
+        <v>7.518490839383334</v>
       </c>
       <c r="R20">
-        <v>23403.19773295382</v>
+        <v>45.11094503630001</v>
       </c>
       <c r="S20">
-        <v>0.1384162536309111</v>
+        <v>0.0002030296768931535</v>
       </c>
       <c r="T20">
-        <v>0.08136766424711504</v>
+        <v>0.0001620256243847938</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1703,31 +1703,31 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C21" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E21">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>34.5677325</v>
+        <v>0.08255866666666667</v>
       </c>
       <c r="H21">
-        <v>69.135465</v>
+        <v>0.247676</v>
       </c>
       <c r="I21">
-        <v>0.5025486901420179</v>
+        <v>0.001191071360215073</v>
       </c>
       <c r="J21">
-        <v>0.4024492394773416</v>
+        <v>0.001344769495439799</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,338 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>84.85695366666668</v>
+        <v>89.83562999999999</v>
       </c>
       <c r="N21">
-        <v>254.570861</v>
+        <v>269.50689</v>
       </c>
       <c r="O21">
-        <v>0.138086767645209</v>
+        <v>0.1681521229683693</v>
       </c>
       <c r="P21">
-        <v>0.1520460408212704</v>
+        <v>0.1782820942415013</v>
       </c>
       <c r="Q21">
-        <v>2933.312475114228</v>
+        <v>7.41670983196</v>
       </c>
       <c r="R21">
-        <v>17599.87485068537</v>
+        <v>66.75038848764</v>
       </c>
       <c r="S21">
-        <v>0.06939532420604497</v>
+        <v>0.0002002811778269879</v>
       </c>
       <c r="T21">
-        <v>0.06119081349406112</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20">
-      <c r="A22" t="s">
-        <v>24</v>
-      </c>
-      <c r="B22" t="s">
-        <v>25</v>
-      </c>
-      <c r="C22" t="s">
-        <v>26</v>
-      </c>
-      <c r="D22" t="s">
-        <v>20</v>
-      </c>
-      <c r="E22">
-        <v>1</v>
-      </c>
-      <c r="F22">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G22">
-        <v>0.02803733333333333</v>
-      </c>
-      <c r="H22">
-        <v>0.08411200000000001</v>
-      </c>
-      <c r="I22">
-        <v>0.0004076091812427038</v>
-      </c>
-      <c r="J22">
-        <v>0.0004896301837402578</v>
-      </c>
-      <c r="K22">
-        <v>3</v>
-      </c>
-      <c r="L22">
-        <v>1</v>
-      </c>
-      <c r="M22">
-        <v>138.2190853333333</v>
-      </c>
-      <c r="N22">
-        <v>414.657256</v>
-      </c>
-      <c r="O22">
-        <v>0.2249223651785973</v>
-      </c>
-      <c r="P22">
-        <v>0.2476599003709697</v>
-      </c>
-      <c r="Q22">
-        <v>3.875294568519112</v>
-      </c>
-      <c r="R22">
-        <v>34.87765111667201</v>
-      </c>
-      <c r="S22">
-        <v>9.16804211136205E-05</v>
-      </c>
-      <c r="T22">
-        <v>0.0001212617625237318</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20">
-      <c r="A23" t="s">
-        <v>24</v>
-      </c>
-      <c r="B23" t="s">
-        <v>25</v>
-      </c>
-      <c r="C23" t="s">
-        <v>26</v>
-      </c>
-      <c r="D23" t="s">
-        <v>21</v>
-      </c>
-      <c r="E23">
-        <v>1</v>
-      </c>
-      <c r="F23">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G23">
-        <v>0.02803733333333333</v>
-      </c>
-      <c r="H23">
-        <v>0.08411200000000001</v>
-      </c>
-      <c r="I23">
-        <v>0.0004076091812427038</v>
-      </c>
-      <c r="J23">
-        <v>0.0004896301837402578</v>
-      </c>
-      <c r="K23">
-        <v>3</v>
-      </c>
-      <c r="L23">
-        <v>1</v>
-      </c>
-      <c r="M23">
-        <v>147.91433</v>
-      </c>
-      <c r="N23">
-        <v>443.74299</v>
-      </c>
-      <c r="O23">
-        <v>0.2406993279341594</v>
-      </c>
-      <c r="P23">
-        <v>0.2650317656414439</v>
-      </c>
-      <c r="Q23">
-        <v>4.147123374986667</v>
-      </c>
-      <c r="R23">
-        <v>37.32411037488001</v>
-      </c>
-      <c r="S23">
-        <v>9.811125598491176E-05</v>
-      </c>
-      <c r="T23">
-        <v>0.0001297675521080251</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20">
-      <c r="A24" t="s">
-        <v>24</v>
-      </c>
-      <c r="B24" t="s">
-        <v>25</v>
-      </c>
-      <c r="C24" t="s">
-        <v>26</v>
-      </c>
-      <c r="D24" t="s">
-        <v>22</v>
-      </c>
-      <c r="E24">
-        <v>1</v>
-      </c>
-      <c r="F24">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G24">
-        <v>0.02803733333333333</v>
-      </c>
-      <c r="H24">
-        <v>0.08411200000000001</v>
-      </c>
-      <c r="I24">
-        <v>0.0004076091812427038</v>
-      </c>
-      <c r="J24">
-        <v>0.0004896301837402578</v>
-      </c>
-      <c r="K24">
-        <v>3</v>
-      </c>
-      <c r="L24">
-        <v>1</v>
-      </c>
-      <c r="M24">
-        <v>74.27261733333333</v>
-      </c>
-      <c r="N24">
-        <v>222.817852</v>
-      </c>
-      <c r="O24">
-        <v>0.1208629960061633</v>
-      </c>
-      <c r="P24">
-        <v>0.1330811078998542</v>
-      </c>
-      <c r="Q24">
-        <v>2.082406129713778</v>
-      </c>
-      <c r="R24">
-        <v>18.741655167424</v>
-      </c>
-      <c r="S24">
-        <v>4.926486684461242E-05</v>
-      </c>
-      <c r="T24">
-        <v>6.516052731336269E-05</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20">
-      <c r="A25" t="s">
-        <v>24</v>
-      </c>
-      <c r="B25" t="s">
-        <v>25</v>
-      </c>
-      <c r="C25" t="s">
-        <v>26</v>
-      </c>
-      <c r="D25" t="s">
-        <v>23</v>
-      </c>
-      <c r="E25">
-        <v>1</v>
-      </c>
-      <c r="F25">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G25">
-        <v>0.02803733333333333</v>
-      </c>
-      <c r="H25">
-        <v>0.08411200000000001</v>
-      </c>
-      <c r="I25">
-        <v>0.0004076091812427038</v>
-      </c>
-      <c r="J25">
-        <v>0.0004896301837402578</v>
-      </c>
-      <c r="K25">
-        <v>2</v>
-      </c>
-      <c r="L25">
-        <v>1</v>
-      </c>
-      <c r="M25">
-        <v>169.2560955</v>
-      </c>
-      <c r="N25">
-        <v>338.512191</v>
-      </c>
-      <c r="O25">
-        <v>0.275428543235871</v>
-      </c>
-      <c r="P25">
-        <v>0.2021811852664618</v>
-      </c>
-      <c r="Q25">
-        <v>4.745489568232</v>
-      </c>
-      <c r="R25">
-        <v>28.472937409392</v>
-      </c>
-      <c r="S25">
-        <v>0.000112267202999244</v>
-      </c>
-      <c r="T25">
-        <v>9.899401089084078E-05</v>
-      </c>
-    </row>
-    <row r="26" spans="1:20">
-      <c r="A26" t="s">
-        <v>24</v>
-      </c>
-      <c r="B26" t="s">
-        <v>25</v>
-      </c>
-      <c r="C26" t="s">
-        <v>26</v>
-      </c>
-      <c r="D26" t="s">
-        <v>24</v>
-      </c>
-      <c r="E26">
-        <v>1</v>
-      </c>
-      <c r="F26">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G26">
-        <v>0.02803733333333333</v>
-      </c>
-      <c r="H26">
-        <v>0.08411200000000001</v>
-      </c>
-      <c r="I26">
-        <v>0.0004076091812427038</v>
-      </c>
-      <c r="J26">
-        <v>0.0004896301837402578</v>
-      </c>
-      <c r="K26">
-        <v>3</v>
-      </c>
-      <c r="L26">
-        <v>1</v>
-      </c>
-      <c r="M26">
-        <v>84.85695366666668</v>
-      </c>
-      <c r="N26">
-        <v>254.570861</v>
-      </c>
-      <c r="O26">
-        <v>0.138086767645209</v>
-      </c>
-      <c r="P26">
-        <v>0.1520460408212704</v>
-      </c>
-      <c r="Q26">
-        <v>2.379162695603556</v>
-      </c>
-      <c r="R26">
-        <v>21.412464260432</v>
-      </c>
-      <c r="S26">
-        <v>5.628543430031513E-05</v>
-      </c>
-      <c r="T26">
-        <v>7.444633090429737E-05</v>
+        <v>0.0002397483219190943</v>
       </c>
     </row>
   </sheetData>
